--- a/Data Analytics/LOOKUP.xlsx
+++ b/Data Analytics/LOOKUP.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aptec\OneDrive\Desktop\Data Analytics\New folder (2)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aptec\OneDrive\Desktop\Data Analytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,13 +16,13 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="Large">Sheet1!$F$5</definedName>
-    <definedName name="Largest">Sheet1!$F$4</definedName>
-    <definedName name="Medium">Sheet1!$F$6</definedName>
-    <definedName name="Small">Sheet1!$F$7</definedName>
-    <definedName name="Threshold_1">Sheet1!$F$9</definedName>
-    <definedName name="Threshold_2">Sheet1!$F$10</definedName>
-    <definedName name="Threshold_3">Sheet1!$F$11</definedName>
+    <definedName name="Large">Sheet1!$I$5</definedName>
+    <definedName name="Largest">Sheet1!$I$4</definedName>
+    <definedName name="Medium">Sheet1!$I$6</definedName>
+    <definedName name="Small">Sheet1!$I$7</definedName>
+    <definedName name="Threshold_1">Sheet1!$I$9</definedName>
+    <definedName name="Threshold_2">Sheet1!$I$10</definedName>
+    <definedName name="Threshold_3">Sheet1!$I$11</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -643,27 +643,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="3.28515625" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="1" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -674,170 +674,209 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="3">
         <v>20</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="E4" s="8" t="s">
+      <c r="C4" s="3" t="str">
+        <f>VLOOKUP(B4,$H$5:$I$11,2)</f>
+        <v>S</v>
+      </c>
+      <c r="H4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="I4" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="3">
         <v>22</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="E5" s="9">
+      <c r="C5" s="3" t="str">
+        <f t="shared" ref="C5:C17" si="0">VLOOKUP(B5,$H$5:$I$11,2)</f>
+        <v>S</v>
+      </c>
+      <c r="H5" s="9">
         <v>0</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="I5" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="3">
         <v>19</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="E6" s="9">
+      <c r="C6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>XS</v>
+      </c>
+      <c r="H6" s="9">
         <v>10</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="I6" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="3">
         <v>13</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="E7" s="9">
+      <c r="C7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>XS</v>
+      </c>
+      <c r="H7" s="9">
         <v>20</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="I7" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="3">
         <v>44</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="E8" s="9">
+      <c r="C8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>M</v>
+      </c>
+      <c r="H8" s="9">
         <v>40</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="I8" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="3">
         <v>27</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="E9" s="9">
+      <c r="C9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>S</v>
+      </c>
+      <c r="H9" s="9">
         <v>60</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="I9" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="3">
         <v>21</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="E10" s="9">
+      <c r="C10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>S</v>
+      </c>
+      <c r="H10" s="9">
         <v>80</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="I10" s="9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="3">
         <v>14</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="E11" s="9">
+      <c r="C11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>XS</v>
+      </c>
+      <c r="H11" s="9">
         <v>100</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="I11" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="3">
         <v>15</v>
       </c>
-      <c r="C12" s="3"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>XS</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="3">
         <v>38</v>
       </c>
-      <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="3">
         <v>15</v>
       </c>
-      <c r="C14" s="3"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>XS</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B15" s="3">
         <v>19</v>
       </c>
-      <c r="C15" s="3"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>XS</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="3">
         <v>25</v>
       </c>
-      <c r="C16" s="3"/>
+      <c r="C16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>S</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
@@ -846,7 +885,10 @@
       <c r="B17" s="3">
         <v>200</v>
       </c>
-      <c r="C17" s="3"/>
+      <c r="C17" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>XXL</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -858,11 +900,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
@@ -904,10 +949,13 @@
         <f t="shared" ref="D4:D15" si="0">B4*C4</f>
         <v>22</v>
       </c>
-      <c r="E4" s="13"/>
+      <c r="E4" s="13">
+        <f>VLOOKUP(C4,$H$5:$I$11,2)</f>
+        <v>0.1</v>
+      </c>
       <c r="F4" s="13">
         <f t="shared" ref="F4:F15" si="1">D4-E4</f>
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="H4" s="8" t="s">
         <v>30</v>
@@ -930,7 +978,10 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E5" s="13"/>
+      <c r="E5" s="13">
+        <f t="shared" ref="E5:E15" si="2">VLOOKUP(C5,$H$5:$I$11,2)</f>
+        <v>0</v>
+      </c>
       <c r="F5" s="13">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -956,10 +1007,13 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E6" s="13"/>
+      <c r="E6" s="13">
+        <f t="shared" si="2"/>
+        <v>0.05</v>
+      </c>
       <c r="F6" s="13">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>10.95</v>
       </c>
       <c r="H6" s="9">
         <v>5</v>
@@ -982,7 +1036,10 @@
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
-      <c r="E7" s="13"/>
+      <c r="E7" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F7" s="13">
         <f t="shared" si="1"/>
         <v>4.5</v>
@@ -1008,10 +1065,13 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="E8" s="13"/>
+      <c r="E8" s="13">
+        <f t="shared" si="2"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
       <c r="F8" s="13">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>16.925000000000001</v>
       </c>
       <c r="H8" s="9">
         <v>15</v>
@@ -1034,7 +1094,10 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E9" s="13"/>
+      <c r="E9" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F9" s="13">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -1060,7 +1123,10 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E10" s="13"/>
+      <c r="E10" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F10" s="13">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -1086,7 +1152,10 @@
         <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
-      <c r="E11" s="13"/>
+      <c r="E11" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F11" s="13">
         <f t="shared" si="1"/>
         <v>0.75</v>
@@ -1112,10 +1181,13 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="E12" s="13"/>
+      <c r="E12" s="13">
+        <f t="shared" si="2"/>
+        <v>0.05</v>
+      </c>
       <c r="F12" s="13">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>23.95</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1132,7 +1204,10 @@
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
-      <c r="E13" s="13"/>
+      <c r="E13" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F13" s="13">
         <f t="shared" si="1"/>
         <v>1.5</v>
@@ -1152,10 +1227,13 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="E14" s="13"/>
+      <c r="E14" s="13">
+        <f t="shared" si="2"/>
+        <v>0.05</v>
+      </c>
       <c r="F14" s="13">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>27.95</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1172,10 +1250,13 @@
         <f t="shared" si="0"/>
         <v>145</v>
       </c>
-      <c r="E15" s="13"/>
+      <c r="E15" s="13">
+        <f t="shared" si="2"/>
+        <v>0.125</v>
+      </c>
       <c r="F15" s="13">
         <f t="shared" si="1"/>
-        <v>145</v>
+        <v>144.875</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1183,21 +1264,21 @@
         <v>47</v>
       </c>
       <c r="B16" s="17">
-        <f t="shared" ref="B16:F16" si="2">SUM(B4:B15)</f>
+        <f t="shared" ref="B16:F16" si="3">SUM(B4:B15)</f>
         <v>18</v>
       </c>
       <c r="C16" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>121</v>
       </c>
       <c r="D16" s="18"/>
       <c r="E16" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>0.45</v>
       </c>
       <c r="F16" s="17">
-        <f t="shared" si="2"/>
-        <v>262.75</v>
+        <f t="shared" si="3"/>
+        <v>262.3</v>
       </c>
     </row>
   </sheetData>
